--- a/TsWebpack.xlsx
+++ b/TsWebpack.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanhnx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ca Nhan\My Project\WebDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B641DD1B-DB4D-49BC-8437-C6112D878EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2A6052-5434-42EE-B6CE-02BB4D7940A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{26916A20-1871-4DDB-B41B-F9F7EF0830EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26916A20-1871-4DDB-B41B-F9F7EF0830EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="typescript" sheetId="1" r:id="rId1"/>
     <sheet name="vue" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>tsc --init</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>npm  i mini-css-extract-plugin css-minimizer-webpack-plugin -D</t>
+  </si>
+  <si>
+    <t>npm install vue vue-router core-js --save</t>
   </si>
 </sst>
 </file>
@@ -1816,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7105864-55A2-47AE-8A3D-43715C10E0F9}">
   <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2024,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A767FF0-6BF6-475B-A4C2-F4119A7A7E86}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2104,6 +2107,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U19" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>38</v>
